--- a/Relatorios_validacao/tabela_consorcio.xlsx
+++ b/Relatorios_validacao/tabela_consorcio.xlsx
@@ -735,19 +735,19 @@
         <v>78</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>19</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>28</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -759,31 +759,31 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="O2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="P2">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="Q2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R2">
         <v>60</v>
       </c>
       <c r="S2">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="T2">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="U2">
         <v>48</v>
@@ -798,22 +798,22 @@
         <v>43</v>
       </c>
       <c r="Y2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Z2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA2">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AB2">
         <v>88</v>
       </c>
       <c r="AC2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AD2">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="AE2">
         <v>24</v>
@@ -822,7 +822,7 @@
         <v>67</v>
       </c>
       <c r="AG2">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>62</v>
       </c>
       <c r="AJ2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK2">
         <v>57</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AO2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="AP2">
         <v>76</v>
@@ -861,19 +861,19 @@
         <v>54</v>
       </c>
       <c r="AT2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AU2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="AV2">
         <v>29</v>
       </c>
       <c r="AW2">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AX2">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AY2">
         <v>120</v>
@@ -882,13 +882,13 @@
         <v>11</v>
       </c>
       <c r="BA2">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="BB2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="BC2">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -902,37 +902,37 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>81</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J3">
         <v>58</v>
       </c>
       <c r="K3">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="M3">
         <v>103</v>
       </c>
       <c r="N3">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="O3">
         <v>164</v>
@@ -944,31 +944,31 @@
         <v>128</v>
       </c>
       <c r="R3">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="S3">
         <v>58</v>
       </c>
       <c r="T3">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="U3">
         <v>63</v>
       </c>
       <c r="V3">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="W3">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="X3">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="Y3">
         <v>63</v>
       </c>
       <c r="Z3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AA3">
         <v>152</v>
@@ -977,7 +977,7 @@
         <v>85</v>
       </c>
       <c r="AC3">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -989,31 +989,31 @@
         <v>44</v>
       </c>
       <c r="AG3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH3">
         <v>59</v>
       </c>
       <c r="AI3">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AJ3">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AM3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AN3">
         <v>95</v>
       </c>
       <c r="AO3">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="AP3">
         <v>56</v>
@@ -1025,34 +1025,34 @@
         <v>48</v>
       </c>
       <c r="AS3">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AV3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AW3">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AX3">
         <v>100</v>
       </c>
       <c r="AY3">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AZ3">
         <v>43</v>
       </c>
       <c r="BA3">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="BB3">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="BC3">
         <v>59</v>
@@ -1066,7 +1066,7 @@
         <v>59</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>75</v>
@@ -1075,7 +1075,7 @@
         <v>51</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>42</v>
@@ -1084,19 +1084,19 @@
         <v>45</v>
       </c>
       <c r="I4">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J4">
         <v>147</v>
       </c>
       <c r="K4">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="L4">
         <v>58</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="N4">
         <v>126</v>
@@ -1108,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="Q4">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="R4">
         <v>26</v>
@@ -1117,25 +1117,25 @@
         <v>16</v>
       </c>
       <c r="T4">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="U4">
         <v>82</v>
       </c>
       <c r="V4">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="W4">
         <v>58</v>
       </c>
       <c r="X4">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="Y4">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Z4">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AA4">
         <v>68</v>
@@ -1144,25 +1144,25 @@
         <v>84</v>
       </c>
       <c r="AC4">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD4">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AE4">
         <v>27</v>
       </c>
       <c r="AF4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG4">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ4">
         <v>78</v>
@@ -1174,19 +1174,19 @@
         <v>100</v>
       </c>
       <c r="AM4">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AN4">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AO4">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="AP4">
         <v>29</v>
       </c>
       <c r="AQ4">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AR4">
         <v>77</v>
@@ -1198,10 +1198,10 @@
         <v>43</v>
       </c>
       <c r="AU4">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="AV4">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="AW4">
         <v>124</v>
@@ -1219,10 +1219,10 @@
         <v>78</v>
       </c>
       <c r="BB4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BC4">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1233,16 +1233,16 @@
         <v>59</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -1254,55 +1254,55 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="K5">
         <v>32</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M5">
         <v>14</v>
       </c>
       <c r="N5">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O5">
         <v>51</v>
       </c>
       <c r="P5">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="Q5">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="R5">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="S5">
         <v>7</v>
       </c>
       <c r="T5">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="U5">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="V5">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="W5">
         <v>29</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y5">
         <v>33</v>
       </c>
       <c r="Z5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AA5">
         <v>39</v>
@@ -1314,13 +1314,13 @@
         <v>44</v>
       </c>
       <c r="AD5">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="AE5">
         <v>27</v>
       </c>
       <c r="AF5">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AG5">
         <v>121</v>
@@ -1332,37 +1332,37 @@
         <v>86</v>
       </c>
       <c r="AJ5">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="AK5">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AL5">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AM5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN5">
         <v>117</v>
       </c>
       <c r="AO5">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AP5">
         <v>76</v>
       </c>
       <c r="AQ5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AR5">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AS5">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AT5">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>127</v>
       </c>
       <c r="AX5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AY5">
         <v>25</v>
